--- a/data/METADATA_sans_Hcov.xlsx
+++ b/data/METADATA_sans_Hcov.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/Documents/JM/NanoString/NanoString_Covid/nanostring_covid/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/Documents/JM/NanoString/IFN_covid_nano/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88C132B-423C-4A4C-9CF7-F7E92E05FD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461DA749-8A47-3440-ACC9-6BB0746FC1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="760" windowWidth="29120" windowHeight="18880" xr2:uid="{C1927016-06CD-4240-A7FE-A2AF99AF9603}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29120" windowHeight="18880" xr2:uid="{C1927016-06CD-4240-A7FE-A2AF99AF9603}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil3" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil3!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil3!$A$1:$G$168</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -589,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,8 +631,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,6 +669,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -677,9 +701,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -688,17 +711,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1017,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0052D020-0676-764E-B3EA-F1FE036E8E81}">
   <dimension ref="A1:CVK192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1027,123 +1062,123 @@
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:91" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>41</v>
       </c>
       <c r="H5"/>
@@ -1232,94 +1267,94 @@
       <c r="CM5"/>
     </row>
     <row r="6" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>45</v>
       </c>
       <c r="H9"/>
@@ -1408,94 +1443,94 @@
       <c r="CM9"/>
     </row>
     <row r="10" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>57</v>
       </c>
       <c r="H13"/>
@@ -1584,95 +1619,95 @@
       <c r="CM13"/>
     </row>
     <row r="14" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="11">
+    <row r="17" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="8">
-        <v>70</v>
+      <c r="G17" s="7">
+        <v>71</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -1760,95 +1795,95 @@
       <c r="CM17"/>
     </row>
     <row r="18" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="A18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="8">
-        <v>71</v>
+      <c r="G18" s="7">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="11">
+      <c r="A19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="8">
-        <v>72</v>
+      <c r="G19" s="7">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="11">
+      <c r="A20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G20" s="8">
-        <v>73</v>
+      <c r="G20" s="7">
+        <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>0</v>
+    <row r="21" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B21" s="8">
-        <v>2</v>
-      </c>
-      <c r="C21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G21" s="8">
-        <v>1</v>
+      <c r="G21" s="7">
+        <v>5</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -1936,95 +1971,95 @@
       <c r="CM21"/>
     </row>
     <row r="22" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8">
-        <v>2</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="A22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="8">
-        <v>2</v>
+      <c r="G22" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="8">
-        <v>3</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G23" s="8">
-        <v>3</v>
+      <c r="G23" s="7">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="7">
         <v>1</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="8">
-        <v>5</v>
+      <c r="G24" s="7">
+        <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="8">
-        <v>2</v>
-      </c>
-      <c r="C25" s="8" t="s">
+    <row r="25" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="8">
-        <v>8</v>
+      <c r="G25" s="7">
+        <v>20</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -2112,95 +2147,95 @@
       <c r="CM25"/>
     </row>
     <row r="26" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="8">
-        <v>6</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G26" s="8">
-        <v>9</v>
+      <c r="G26" s="7">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="8">
-        <v>2</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G27" s="8">
-        <v>10</v>
+      <c r="G27" s="7">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="8">
+      <c r="A28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="7">
         <v>1</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="8">
-        <v>11</v>
+      <c r="G28" s="7">
+        <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="8">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8" t="s">
+    <row r="29" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G29" s="8">
-        <v>12</v>
+      <c r="G29" s="7">
+        <v>29</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
@@ -2288,95 +2323,95 @@
       <c r="CM29"/>
     </row>
     <row r="30" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="8">
-        <v>3</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G30" s="8">
-        <v>13</v>
+      <c r="G30" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="7">
         <v>52</v>
-      </c>
-      <c r="B31" s="8">
-        <v>6</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="8">
-        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="8">
+      <c r="A32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="7">
         <v>1</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G32" s="8">
-        <v>16</v>
+      <c r="G32" s="7">
+        <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="9">
-        <v>4</v>
-      </c>
-      <c r="C33" s="8" t="s">
+    <row r="33" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G33" s="8">
-        <v>17</v>
+      <c r="G33" s="7">
+        <v>58</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
@@ -2464,95 +2499,95 @@
       <c r="CM33"/>
     </row>
     <row r="34" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="8">
+      <c r="A34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="7">
         <v>1</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="8">
-        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="8">
-        <v>1</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="A35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="8">
-        <v>20</v>
+      <c r="G35" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="8">
-        <v>1</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="A36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G36" s="8">
-        <v>21</v>
+      <c r="G36" s="7">
+        <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="8">
-        <v>4</v>
-      </c>
-      <c r="C37" s="8" t="s">
+    <row r="37" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G37" s="8">
-        <v>22</v>
+      <c r="G37" s="7">
+        <v>10</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
@@ -2640,95 +2675,95 @@
       <c r="CM37"/>
     </row>
     <row r="38" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="8">
-        <v>1</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="A38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="8">
-        <v>23</v>
+      <c r="G38" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="8">
+      <c r="A39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="7">
         <v>2</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="8">
-        <v>25</v>
+      <c r="G39" s="7">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="8">
-        <v>4</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="A40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G40" s="8">
-        <v>26</v>
+      <c r="G40" s="7">
+        <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="8">
+    <row r="41" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="7">
         <v>2</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G41" s="8">
-        <v>27</v>
+      <c r="G41" s="7">
+        <v>48</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
@@ -2816,95 +2851,95 @@
       <c r="CM41"/>
     </row>
     <row r="42" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="8">
-        <v>1</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="A42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="7">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G42" s="8">
-        <v>28</v>
+      <c r="G42" s="7">
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="8">
-        <v>1</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="A43" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G43" s="8">
-        <v>29</v>
+      <c r="G43" s="7">
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="8">
+      <c r="A44" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="7">
         <v>2</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G44" s="8">
-        <v>30</v>
+      <c r="G44" s="7">
+        <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="8">
-        <v>1</v>
-      </c>
-      <c r="C45" s="8" t="s">
+    <row r="45" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G45" s="8">
-        <v>31</v>
+      <c r="G45" s="7">
+        <v>60</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
@@ -2992,95 +3027,95 @@
       <c r="CM45"/>
     </row>
     <row r="46" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="8">
-        <v>3</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="A46" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="7">
+        <v>2</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G46" s="8">
-        <v>47</v>
+      <c r="G46" s="7">
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="8">
+      <c r="A47" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="7">
         <v>2</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G47" s="8">
-        <v>48</v>
+      <c r="G47" s="7">
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="8">
-        <v>2</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="A48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="7">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G48" s="8">
-        <v>49</v>
+      <c r="G48" s="7">
+        <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="8">
+    <row r="49" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7">
         <v>3</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G49" s="8">
-        <v>50</v>
+      <c r="G49" s="7">
+        <v>13</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
@@ -3168,95 +3203,95 @@
       <c r="CM49"/>
     </row>
     <row r="50" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="8">
-        <v>4</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="A50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="7">
+        <v>3</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G50" s="8">
-        <v>51</v>
+      <c r="G50" s="7">
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="8">
-        <v>1</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="A51" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="7">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G51" s="8">
-        <v>52</v>
+      <c r="G51" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B52" s="8">
-        <v>2</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="A52" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="7">
+        <v>3</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G52" s="8">
-        <v>54</v>
+      <c r="G52" s="7">
+        <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>137</v>
+    <row r="53" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B53" s="8">
-        <v>1</v>
-      </c>
-      <c r="C53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G53" s="8">
-        <v>56</v>
+      <c r="G53" s="7">
+        <v>17</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
@@ -3344,95 +3379,95 @@
       <c r="CM53"/>
     </row>
     <row r="54" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="8">
-        <v>1</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="A54" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G54" s="8">
-        <v>58</v>
+      <c r="G54" s="7">
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="8">
-        <v>2</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="A55" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="7">
+        <v>4</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G55" s="8">
-        <v>59</v>
+      <c r="G55" s="7">
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B56" s="8">
-        <v>2</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="A56" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="7">
+        <v>4</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G56" s="8">
-        <v>60</v>
+      <c r="G56" s="7">
+        <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="8">
-        <v>3</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" s="8" t="s">
+    <row r="57" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="7">
+        <v>4</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G57" s="8">
-        <v>61</v>
+      <c r="G57" s="7">
+        <v>66</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
@@ -3520,95 +3555,95 @@
       <c r="CM57"/>
     </row>
     <row r="58" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>5</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="7">
         <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="8">
-        <v>2</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="A59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="7">
+        <v>6</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G59" s="8">
-        <v>63</v>
+      <c r="G59" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="8">
-        <v>2</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="A60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="7">
+        <v>6</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G60" s="8">
-        <v>64</v>
+      <c r="G60" s="7">
+        <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="8">
-        <v>4</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D61" s="8" t="s">
+    <row r="61" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="7">
+        <v>6</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G61" s="8">
-        <v>66</v>
+      <c r="G61" s="7">
+        <v>12</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
@@ -3696,95 +3731,95 @@
       <c r="CM61"/>
     </row>
     <row r="62" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="8">
-        <v>9</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E62" s="8" t="s">
+      <c r="A62" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="7">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G62" s="8">
-        <v>1</v>
+      <c r="G62" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="8">
+      <c r="A63" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="7">
         <v>9</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G63" s="8">
-        <v>2</v>
+      <c r="G63" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="7">
         <v>9</v>
       </c>
-      <c r="B64" s="8">
+      <c r="C64" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="B65" s="7">
+        <v>9</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D65" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E65" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F65" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G65" s="7">
         <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="8">
-        <v>7</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G65" s="8">
-        <v>4</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
@@ -3872,95 +3907,95 @@
       <c r="CM65"/>
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="9">
-        <v>8</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="A66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="7">
+        <v>7</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G66" s="8">
-        <v>5</v>
+      <c r="G66" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>20</v>
+      <c r="A67" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B67" s="8">
-        <v>6</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G67" s="8">
-        <v>6</v>
+      <c r="G67" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="7">
+        <v>13</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G68" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B69" s="7">
         <v>7</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D69" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E69" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F69" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G69" s="7">
         <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" s="8">
-        <v>10</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G69" s="8">
-        <v>8</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
@@ -4048,72 +4083,72 @@
       <c r="CM69"/>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="8">
-        <v>13</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="A70" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="7">
+        <v>10</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G70" s="8">
-        <v>9</v>
+      <c r="G70" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="7">
+        <v>13</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G71" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B72" s="7">
         <v>9</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D72" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F72" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G72" s="7">
         <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" s="8">
-        <v>8</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G72" s="8">
-        <v>11</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
@@ -4201,95 +4236,95 @@
       <c r="CM72"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" s="8">
-        <v>13</v>
-      </c>
-      <c r="C73" s="8" t="s">
+      <c r="A73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="7">
+        <v>8</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G73" s="8">
-        <v>12</v>
+      <c r="G73" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B74" s="8">
-        <v>10</v>
-      </c>
-      <c r="C74" s="8" t="s">
+      <c r="A74" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="7">
+        <v>13</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G74" s="8">
-        <v>13</v>
+      <c r="G74" s="7">
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="7">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G75" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B76" s="7">
         <v>12</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D76" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G76" s="7">
         <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B76" s="9">
-        <v>7</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G76" s="8">
-        <v>15</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
@@ -4377,95 +4412,95 @@
       <c r="CM76"/>
     </row>
     <row r="77" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
-        <v>61</v>
+      <c r="A77" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B77" s="8">
         <v>7</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="C77" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G77" s="8">
-        <v>16</v>
+      <c r="G77" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="9">
-        <v>11</v>
-      </c>
-      <c r="C78" s="8" t="s">
+      <c r="A78" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="7">
+        <v>7</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G78" s="8">
-        <v>17</v>
+      <c r="G78" s="7">
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="8">
+        <v>11</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G79" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B80" s="7">
         <v>8</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D80" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E80" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F80" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G80" s="7">
         <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="8">
-        <v>8</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G80" s="8">
-        <v>19</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
@@ -4553,95 +4588,95 @@
       <c r="CM80"/>
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B81" s="8">
-        <v>9</v>
-      </c>
-      <c r="C81" s="8" t="s">
+      <c r="A81" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="7">
+        <v>8</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G81" s="8">
-        <v>20</v>
+      <c r="G81" s="7">
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="8">
-        <v>8</v>
-      </c>
-      <c r="C82" s="8" t="s">
+      <c r="A82" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="7">
+        <v>9</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G82" s="8">
-        <v>21</v>
+      <c r="G82" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7">
+        <v>8</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G83" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B84" s="7">
         <v>10</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D84" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E84" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F84" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G84" s="7">
         <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="8">
-        <v>8</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G84" s="8">
-        <v>23</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
@@ -4728,27 +4763,27 @@
       <c r="CL84"/>
       <c r="CM84"/>
     </row>
-    <row r="85" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="8">
+    <row r="85" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="7">
         <v>8</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G85" s="8">
-        <v>24</v>
+      <c r="G85" s="7">
+        <v>23</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
@@ -4836,72 +4871,72 @@
       <c r="CM85"/>
     </row>
     <row r="86" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" s="8">
-        <v>9</v>
-      </c>
-      <c r="C86" s="8" t="s">
+      <c r="A86" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="7">
+        <v>8</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G86" s="8">
-        <v>25</v>
+      <c r="G86" s="7">
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" s="8">
-        <v>11</v>
-      </c>
-      <c r="C87" s="8" t="s">
+      <c r="A87" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="7">
+        <v>13</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G87" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="7">
+        <v>9</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D88" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E88" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F88" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G87" s="8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B88" s="8">
-        <v>9</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G88" s="8">
-        <v>27</v>
+      <c r="G88" s="7">
+        <v>25</v>
       </c>
       <c r="H88"/>
       <c r="I88"/>
@@ -4989,95 +5024,95 @@
       <c r="CM88"/>
     </row>
     <row r="89" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B89" s="8">
-        <v>7</v>
-      </c>
-      <c r="C89" s="8" t="s">
+      <c r="A89" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="7">
+        <v>11</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G89" s="8">
-        <v>29</v>
+      <c r="G89" s="7">
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A90" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="8">
+      <c r="A90" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="7">
         <v>9</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G90" s="8">
-        <v>30</v>
+      <c r="G90" s="7">
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" s="8">
-        <v>8</v>
-      </c>
-      <c r="C91" s="8" t="s">
+      <c r="A91" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" s="7">
+        <v>7</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G91" s="8">
-        <v>31</v>
+      <c r="G91" s="7">
+        <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B92" s="8">
-        <v>10</v>
-      </c>
-      <c r="C92" s="8" t="s">
+    <row r="92" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="7">
+        <v>9</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G92" s="8">
-        <v>47</v>
+      <c r="G92" s="7">
+        <v>30</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
@@ -5165,95 +5200,95 @@
       <c r="CM92"/>
     </row>
     <row r="93" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A93" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B93" s="8">
-        <v>9</v>
-      </c>
-      <c r="C93" s="8" t="s">
+      <c r="A93" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="7">
+        <v>8</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G93" s="8">
-        <v>48</v>
+      <c r="G93" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A94" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B94" s="8">
-        <v>9</v>
-      </c>
-      <c r="C94" s="8" t="s">
+      <c r="A94" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="7">
+        <v>10</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G94" s="8">
-        <v>49</v>
+      <c r="G94" s="7">
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:91" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B95" s="8">
-        <v>10</v>
-      </c>
-      <c r="C95" s="8" t="s">
+      <c r="A95" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" s="7">
+        <v>9</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G95" s="8">
-        <v>50</v>
+      <c r="G95" s="7">
+        <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:91" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B96" s="8">
-        <v>11</v>
-      </c>
-      <c r="C96" s="8" t="s">
+    <row r="96" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="7">
+        <v>9</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G96" s="8">
-        <v>51</v>
+      <c r="G96" s="7">
+        <v>49</v>
       </c>
       <c r="H96"/>
       <c r="I96"/>
@@ -5340,27 +5375,27 @@
       <c r="CL96"/>
       <c r="CM96"/>
     </row>
-    <row r="97" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B97" s="8">
-        <v>8</v>
-      </c>
-      <c r="C97" s="8" t="s">
+    <row r="97" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="7">
+        <v>10</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G97" s="8">
-        <v>52</v>
+      <c r="G97" s="7">
+        <v>50</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
@@ -7967,27 +8002,27 @@
       <c r="CVJ97"/>
       <c r="CVK97"/>
     </row>
-    <row r="98" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B98" s="8">
-        <v>9</v>
-      </c>
-      <c r="C98" s="8" t="s">
+    <row r="98" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="7">
+        <v>11</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G98" s="8">
-        <v>54</v>
+      <c r="G98" s="7">
+        <v>51</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
@@ -8074,27 +8109,27 @@
       <c r="CL98"/>
       <c r="CM98"/>
     </row>
-    <row r="99" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B99" s="8">
+    <row r="99" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" s="7">
         <v>8</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G99" s="8">
-        <v>58</v>
+      <c r="G99" s="7">
+        <v>52</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
@@ -8181,27 +8216,27 @@
       <c r="CL99"/>
       <c r="CM99"/>
     </row>
-    <row r="100" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B100" s="8">
+    <row r="100" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="7">
         <v>9</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G100" s="8">
-        <v>59</v>
+      <c r="G100" s="7">
+        <v>54</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
@@ -8288,27 +8323,27 @@
       <c r="CL100"/>
       <c r="CM100"/>
     </row>
-    <row r="101" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B101" s="8">
-        <v>9</v>
-      </c>
-      <c r="C101" s="8" t="s">
+    <row r="101" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" s="7">
+        <v>8</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G101" s="8">
-        <v>60</v>
+      <c r="G101" s="7">
+        <v>58</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
@@ -10915,27 +10950,27 @@
       <c r="CVJ101"/>
       <c r="CVK101"/>
     </row>
-    <row r="102" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B102" s="8">
-        <v>10</v>
-      </c>
-      <c r="C102" s="8" t="s">
+    <row r="102" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" s="7">
+        <v>9</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G102" s="8">
-        <v>61</v>
+      <c r="G102" s="7">
+        <v>59</v>
       </c>
       <c r="H102"/>
       <c r="I102"/>
@@ -11022,27 +11057,27 @@
       <c r="CL102"/>
       <c r="CM102"/>
     </row>
-    <row r="103" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B103" s="8">
+    <row r="103" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" s="7">
         <v>9</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G103" s="8">
-        <v>63</v>
+      <c r="G103" s="7">
+        <v>60</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
@@ -11129,27 +11164,27 @@
       <c r="CL103"/>
       <c r="CM103"/>
     </row>
-    <row r="104" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="8">
-        <v>16</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E104" s="8" t="s">
+    <row r="104" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="7">
+        <v>10</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G104" s="8">
-        <v>1</v>
+      <c r="G104" s="7">
+        <v>61</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
@@ -11236,27 +11271,27 @@
       <c r="CL104"/>
       <c r="CM104"/>
     </row>
-    <row r="105" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="8">
-        <v>15</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E105" s="8" t="s">
+    <row r="105" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="7">
+        <v>9</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G105" s="8">
-        <v>2</v>
+      <c r="G105" s="7">
+        <v>63</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
@@ -13864,49 +13899,49 @@
       <c r="CVK105"/>
     </row>
     <row r="106" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="8">
+      <c r="A106" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="7">
         <v>16</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G106" s="8">
-        <v>3</v>
+      <c r="G106" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" s="8">
-        <v>14</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D107" s="8" t="s">
+    <row r="107" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="7">
+        <v>15</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G107" s="8">
-        <v>4</v>
+      <c r="G107" s="7">
+        <v>2</v>
       </c>
       <c r="H107"/>
       <c r="I107"/>
@@ -13994,49 +14029,49 @@
       <c r="CM107"/>
     </row>
     <row r="108" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" s="9">
+      <c r="A108" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="7">
+        <v>16</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G108" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="7">
         <v>14</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D108" s="8" t="s">
+      <c r="C109" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D109" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E109" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F109" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G108" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B109" s="8">
-        <v>13</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G109" s="8">
-        <v>6</v>
+      <c r="G109" s="7">
+        <v>4</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
@@ -16644,49 +16679,49 @@
       <c r="CVK109"/>
     </row>
     <row r="110" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A110" s="8" t="s">
-        <v>25</v>
+      <c r="A110" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B110" s="8">
         <v>14</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D110" s="8" t="s">
+      <c r="C110" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G110" s="8">
-        <v>7</v>
+      <c r="G110" s="7">
+        <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B111" s="8">
-        <v>16</v>
-      </c>
-      <c r="C111" s="8" t="s">
+    <row r="111" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" s="7">
+        <v>20</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G111" s="8">
-        <v>8</v>
+      <c r="G111" s="7">
+        <v>6</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
@@ -16774,49 +16809,49 @@
       <c r="CM111"/>
     </row>
     <row r="112" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B112" s="8">
-        <v>19</v>
-      </c>
-      <c r="C112" s="8" t="s">
+      <c r="A112" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="7">
+        <v>14</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G112" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="7">
+        <v>16</v>
+      </c>
+      <c r="C113" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D113" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E113" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F113" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G112" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B113" s="8">
-        <v>14</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G113" s="8">
-        <v>10</v>
+      <c r="G113" s="7">
+        <v>8</v>
       </c>
       <c r="H113"/>
       <c r="I113"/>
@@ -19424,49 +19459,49 @@
       <c r="CVK113"/>
     </row>
     <row r="114" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B114" s="8">
-        <v>15</v>
-      </c>
-      <c r="C114" s="8" t="s">
+      <c r="A114" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="7">
+        <v>19</v>
+      </c>
+      <c r="C114" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G114" s="8">
-        <v>11</v>
+      <c r="G114" s="7">
+        <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B115" s="8">
-        <v>19</v>
-      </c>
-      <c r="C115" s="8" t="s">
+    <row r="115" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" s="7">
+        <v>14</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G115" s="8">
-        <v>12</v>
+      <c r="G115" s="7">
+        <v>10</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
@@ -19554,49 +19589,49 @@
       <c r="CM115"/>
     </row>
     <row r="116" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B116" s="8">
-        <v>16</v>
-      </c>
-      <c r="C116" s="8" t="s">
+      <c r="A116" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B116" s="7">
+        <v>15</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G116" s="8">
-        <v>13</v>
+      <c r="G116" s="7">
+        <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B117" s="8">
+    <row r="117" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" s="7">
         <v>19</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G117" s="8">
-        <v>14</v>
+      <c r="G117" s="7">
+        <v>12</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
@@ -22203,27 +22238,27 @@
       <c r="CVJ117"/>
       <c r="CVK117"/>
     </row>
-    <row r="118" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B118" s="9">
-        <v>14</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D118" s="8" t="s">
+    <row r="118" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" s="7">
+        <v>16</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G118" s="8">
-        <v>15</v>
+      <c r="G118" s="7">
+        <v>13</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
@@ -22311,49 +22346,49 @@
       <c r="CM118"/>
     </row>
     <row r="119" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A119" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B119" s="8">
+      <c r="A119" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="7">
+        <v>19</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G119" s="7">
         <v>14</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D119" s="8" t="s">
+    </row>
+    <row r="120" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" s="8">
+        <v>14</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D120" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E120" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F120" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G119" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B120" s="9">
-        <v>18</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G120" s="8">
-        <v>17</v>
+      <c r="G120" s="7">
+        <v>15</v>
       </c>
       <c r="H120"/>
       <c r="I120"/>
@@ -22440,27 +22475,27 @@
       <c r="CL120"/>
       <c r="CM120"/>
     </row>
-    <row r="121" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B121" s="8">
-        <v>15</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D121" s="8" t="s">
+    <row r="121" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" s="7">
+        <v>14</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D121" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E121" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F121" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G121" s="8">
-        <v>18</v>
+      <c r="G121" s="7">
+        <v>16</v>
       </c>
       <c r="H121"/>
       <c r="I121"/>
@@ -25067,27 +25102,27 @@
       <c r="CVJ121"/>
       <c r="CVK121"/>
     </row>
-    <row r="122" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8" t="s">
-        <v>74</v>
+    <row r="122" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B122" s="8">
-        <v>14</v>
-      </c>
-      <c r="C122" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G122" s="8">
-        <v>19</v>
+      <c r="G122" s="7">
+        <v>17</v>
       </c>
       <c r="H122"/>
       <c r="I122"/>
@@ -25174,27 +25209,27 @@
       <c r="CL122"/>
       <c r="CM122"/>
     </row>
-    <row r="123" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B123" s="8">
-        <v>16</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D123" s="8" t="s">
+    <row r="123" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" s="7">
+        <v>15</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D123" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F123" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G123" s="8">
-        <v>20</v>
+      <c r="G123" s="7">
+        <v>18</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
@@ -27802,49 +27837,49 @@
       <c r="CVK123"/>
     </row>
     <row r="124" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A124" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B124" s="8">
-        <v>15</v>
-      </c>
-      <c r="C124" s="8" t="s">
+      <c r="A124" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B124" s="7">
+        <v>14</v>
+      </c>
+      <c r="C124" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G124" s="8">
-        <v>21</v>
+      <c r="G124" s="7">
+        <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B125" s="8">
-        <v>19</v>
-      </c>
-      <c r="C125" s="8" t="s">
+    <row r="125" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="7">
+        <v>16</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G125" s="8">
-        <v>22</v>
+      <c r="G125" s="7">
+        <v>20</v>
       </c>
       <c r="H125"/>
       <c r="I125"/>
@@ -30452,49 +30487,49 @@
       <c r="CVK125"/>
     </row>
     <row r="126" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A126" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B126" s="8">
+      <c r="A126" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="7">
         <v>15</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F126" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G126" s="8">
-        <v>23</v>
+      <c r="G126" s="7">
+        <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B127" s="8">
-        <v>13</v>
-      </c>
-      <c r="C127" s="8" t="s">
+    <row r="127" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="7">
+        <v>19</v>
+      </c>
+      <c r="C127" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G127" s="8">
-        <v>24</v>
+      <c r="G127" s="7">
+        <v>22</v>
       </c>
       <c r="H127"/>
       <c r="I127"/>
@@ -33102,49 +33137,49 @@
       <c r="CVK127"/>
     </row>
     <row r="128" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A128" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B128" s="8">
-        <v>16</v>
-      </c>
-      <c r="C128" s="8" t="s">
+      <c r="A128" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B128" s="7">
+        <v>15</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G128" s="8">
-        <v>25</v>
+      <c r="G128" s="7">
+        <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B129" s="8">
-        <v>18</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D129" s="8" t="s">
+    <row r="129" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B129" s="7">
+        <v>20</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D129" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G129" s="8">
-        <v>26</v>
+      <c r="G129" s="7">
+        <v>24</v>
       </c>
       <c r="H129"/>
       <c r="I129"/>
@@ -35752,49 +35787,49 @@
       <c r="CVK129"/>
     </row>
     <row r="130" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B130" s="8">
+      <c r="A130" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B130" s="7">
         <v>16</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E130" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="F130" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G130" s="8">
-        <v>27</v>
+      <c r="G130" s="7">
+        <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B131" s="8">
-        <v>15</v>
-      </c>
-      <c r="C131" s="8" t="s">
+    <row r="131" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B131" s="7">
+        <v>18</v>
+      </c>
+      <c r="C131" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E131" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F131" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G131" s="8">
-        <v>29</v>
+      <c r="G131" s="7">
+        <v>26</v>
       </c>
       <c r="H131"/>
       <c r="I131"/>
@@ -38402,49 +38437,49 @@
       <c r="CVK131"/>
     </row>
     <row r="132" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A132" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B132" s="8">
-        <v>14</v>
-      </c>
-      <c r="C132" s="8" t="s">
+      <c r="A132" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B132" s="7">
+        <v>16</v>
+      </c>
+      <c r="C132" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G132" s="8">
-        <v>30</v>
+      <c r="G132" s="7">
+        <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B133" s="8">
-        <v>14</v>
-      </c>
-      <c r="C133" s="8" t="s">
+    <row r="133" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" s="7">
+        <v>15</v>
+      </c>
+      <c r="C133" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E133" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G133" s="8">
-        <v>31</v>
+      <c r="G133" s="7">
+        <v>29</v>
       </c>
       <c r="H133"/>
       <c r="I133"/>
@@ -41052,49 +41087,49 @@
       <c r="CVK133"/>
     </row>
     <row r="134" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B134" s="8">
+      <c r="A134" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B134" s="7">
         <v>14</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D134" s="8" t="s">
+      <c r="C134" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D134" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G134" s="8">
-        <v>62</v>
+      <c r="G134" s="7">
+        <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B135" s="8">
-        <v>24</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E135" s="8" t="s">
+    <row r="135" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="7">
+        <v>14</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E135" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F135" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G135" s="8">
-        <v>1</v>
+      <c r="G135" s="7">
+        <v>31</v>
       </c>
       <c r="H135"/>
       <c r="I135"/>
@@ -43701,27 +43736,27 @@
       <c r="CVJ135"/>
       <c r="CVK135"/>
     </row>
-    <row r="136" spans="1:2611" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136" s="8">
-        <v>24</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E136" s="8" t="s">
+    <row r="136" spans="1:2611" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="7">
+        <v>14</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E136" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F136" s="8" t="s">
+      <c r="F136" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G136" s="8">
-        <v>2</v>
+      <c r="G136" s="7">
+        <v>62</v>
       </c>
       <c r="H136"/>
       <c r="I136"/>
@@ -46328,27 +46363,27 @@
       <c r="CVJ136"/>
       <c r="CVK136"/>
     </row>
-    <row r="137" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B137" s="8">
-        <v>22</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D137" s="8" t="s">
+    <row r="137" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="7">
+        <v>21</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D137" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="E137" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="F137" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G137" s="8">
-        <v>3</v>
+      <c r="G137" s="7">
+        <v>4</v>
       </c>
       <c r="H137"/>
       <c r="I137"/>
@@ -46435,27 +46470,27 @@
       <c r="CL137"/>
       <c r="CM137"/>
     </row>
-    <row r="138" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
-        <v>14</v>
+    <row r="138" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B138" s="8">
         <v>21</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D138" s="8" t="s">
+      <c r="C138" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D138" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E138" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="F138" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G138" s="8">
-        <v>4</v>
+      <c r="G138" s="7">
+        <v>5</v>
       </c>
       <c r="H138"/>
       <c r="I138"/>
@@ -49062,27 +49097,27 @@
       <c r="CVJ138"/>
       <c r="CVK138"/>
     </row>
-    <row r="139" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" s="8">
-        <v>27</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D139" s="8" t="s">
+    <row r="139" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="7">
+        <v>21</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D139" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="F139" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G139" s="8">
-        <v>4</v>
+      <c r="G139" s="7">
+        <v>7</v>
       </c>
       <c r="H139"/>
       <c r="I139"/>
@@ -49169,27 +49204,27 @@
       <c r="CL139"/>
       <c r="CM139"/>
     </row>
-    <row r="140" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B140" s="9">
+    <row r="140" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="8">
         <v>21</v>
       </c>
-      <c r="C140" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D140" s="8" t="s">
+      <c r="C140" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D140" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="E140" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F140" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G140" s="8">
-        <v>5</v>
+      <c r="G140" s="7">
+        <v>15</v>
       </c>
       <c r="H140"/>
       <c r="I140"/>
@@ -51796,27 +51831,27 @@
       <c r="CVJ140"/>
       <c r="CVK140"/>
     </row>
-    <row r="141" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B141" s="8">
-        <v>20</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D141" s="8" t="s">
+    <row r="141" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B141" s="7">
+        <v>21</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D141" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E141" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F141" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G141" s="8">
-        <v>6</v>
+      <c r="G141" s="7">
+        <v>16</v>
       </c>
       <c r="H141"/>
       <c r="I141"/>
@@ -51903,27 +51938,27 @@
       <c r="CL141"/>
       <c r="CM141"/>
     </row>
-    <row r="142" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B142" s="8">
-        <v>27</v>
-      </c>
-      <c r="C142" s="8" t="s">
+    <row r="142" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B142" s="7">
+        <v>21</v>
+      </c>
+      <c r="C142" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F142" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G142" s="8">
-        <v>6</v>
+      <c r="G142" s="7">
+        <v>30</v>
       </c>
       <c r="H142"/>
       <c r="I142"/>
@@ -54530,27 +54565,27 @@
       <c r="CVJ142"/>
       <c r="CVK142"/>
     </row>
-    <row r="143" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B143" s="8">
+    <row r="143" spans="1:2611" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B143" s="9">
         <v>21</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D143" s="8" t="s">
+      <c r="C143" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D143" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="E143" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="F143" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G143" s="8">
-        <v>7</v>
+      <c r="G143" s="7">
+        <v>31</v>
       </c>
       <c r="H143"/>
       <c r="I143"/>
@@ -54637,27 +54672,27 @@
       <c r="CL143"/>
       <c r="CM143"/>
     </row>
-    <row r="144" spans="1:2611" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B144" s="8">
-        <v>27</v>
-      </c>
-      <c r="C144" s="8" t="s">
+    <row r="144" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="7">
+        <v>22</v>
+      </c>
+      <c r="C144" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E144" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F144" s="8" t="s">
+      <c r="F144" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G144" s="8">
-        <v>7</v>
+      <c r="G144" s="7">
+        <v>3</v>
       </c>
       <c r="H144"/>
       <c r="I144"/>
@@ -57264,27 +57299,27 @@
       <c r="CVJ144"/>
       <c r="CVK144"/>
     </row>
-    <row r="145" spans="1:2611" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B145" s="8">
-        <v>23</v>
-      </c>
-      <c r="C145" s="8" t="s">
+    <row r="145" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145" s="7">
+        <v>22</v>
+      </c>
+      <c r="C145" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="F145" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G145" s="8">
-        <v>8</v>
+      <c r="G145" s="7">
+        <v>10</v>
       </c>
       <c r="H145"/>
       <c r="I145"/>
@@ -57371,27 +57406,27 @@
       <c r="CL145"/>
       <c r="CM145"/>
     </row>
-    <row r="146" spans="1:2611" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B146" s="8">
-        <v>27</v>
-      </c>
-      <c r="C146" s="8" t="s">
+    <row r="146" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146" s="7">
+        <v>22</v>
+      </c>
+      <c r="C146" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F146" s="8" t="s">
+      <c r="F146" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G146" s="8">
-        <v>9</v>
+      <c r="G146" s="7">
+        <v>11</v>
       </c>
       <c r="H146"/>
       <c r="I146"/>
@@ -59998,27 +60033,27 @@
       <c r="CVJ146"/>
       <c r="CVK146"/>
     </row>
-    <row r="147" spans="1:2611" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B147" s="8">
+    <row r="147" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" s="7">
         <v>22</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D147" s="8" t="s">
+      <c r="C147" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D147" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="E147" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F147" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G147" s="8">
-        <v>10</v>
+      <c r="G147" s="7">
+        <v>18</v>
       </c>
       <c r="H147"/>
       <c r="I147"/>
@@ -60105,27 +60140,27 @@
       <c r="CL147"/>
       <c r="CM147"/>
     </row>
-    <row r="148" spans="1:2611" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B148" s="8">
+    <row r="148" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B148" s="7">
         <v>22</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="E148" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F148" s="8" t="s">
+      <c r="F148" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G148" s="8">
-        <v>11</v>
+      <c r="G148" s="7">
+        <v>19</v>
       </c>
       <c r="H148"/>
       <c r="I148"/>
@@ -62732,27 +62767,27 @@
       <c r="CVJ148"/>
       <c r="CVK148"/>
     </row>
-    <row r="149" spans="1:2611" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B149" s="8">
-        <v>26</v>
-      </c>
-      <c r="C149" s="8" t="s">
+    <row r="149" spans="1:2611" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B149" s="7">
+        <v>22</v>
+      </c>
+      <c r="C149" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="E149" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F149" s="8" t="s">
+      <c r="F149" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G149" s="8">
-        <v>12</v>
+      <c r="G149" s="7">
+        <v>21</v>
       </c>
       <c r="H149"/>
       <c r="I149"/>
@@ -62840,520 +62875,521 @@
       <c r="CM149"/>
     </row>
     <row r="150" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B150" s="8">
-        <v>25</v>
-      </c>
-      <c r="C150" s="8" t="s">
+      <c r="A150" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B150" s="7">
+        <v>22</v>
+      </c>
+      <c r="C150" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E150" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F150" s="8" t="s">
+      <c r="F150" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G150" s="8">
-        <v>13</v>
+      <c r="G150" s="7">
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B151" s="8">
-        <v>27</v>
-      </c>
-      <c r="C151" s="8" t="s">
+      <c r="A151" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" s="7">
+        <v>23</v>
+      </c>
+      <c r="C151" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="E151" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F151" s="8" t="s">
+      <c r="F151" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G151" s="8">
-        <v>14</v>
+      <c r="G151" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B152" s="9">
-        <v>21</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D152" s="8" t="s">
+      <c r="A152" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B152" s="7">
+        <v>23</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D152" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="E152" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F152" s="8" t="s">
+      <c r="F152" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G152" s="8">
-        <v>15</v>
+      <c r="G152" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B153" s="9">
-        <v>28</v>
-      </c>
-      <c r="C153" s="8" t="s">
+      <c r="A153" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B153" s="7">
+        <v>23</v>
+      </c>
+      <c r="C153" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F153" s="8" t="s">
+      <c r="F153" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G153" s="8">
-        <v>15</v>
+      <c r="G153" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="154" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B154" s="8">
-        <v>21</v>
-      </c>
-      <c r="C154" s="8" t="s">
+      <c r="A154" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B154" s="7">
+        <v>23</v>
+      </c>
+      <c r="C154" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E154" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F154" s="8" t="s">
+      <c r="F154" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G154" s="8">
-        <v>16</v>
+      <c r="G154" s="7">
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A155" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B155" s="9">
-        <v>25</v>
-      </c>
-      <c r="C155" s="8" t="s">
+      <c r="A155" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="7">
+        <v>24</v>
+      </c>
+      <c r="C155" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="E155" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F155" s="8" t="s">
+      <c r="F155" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G155" s="8">
-        <v>17</v>
+      <c r="G155" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A156" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B156" s="8">
-        <v>22</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D156" s="8" t="s">
+      <c r="A156" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="7">
+        <v>24</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D156" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E156" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F156" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G156" s="8">
-        <v>18</v>
+      <c r="G156" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A157" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B157" s="8">
-        <v>29</v>
-      </c>
-      <c r="C157" s="8" t="s">
+      <c r="A157" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B157" s="7">
+        <v>25</v>
+      </c>
+      <c r="C157" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E157" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F157" s="8" t="s">
+      <c r="F157" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G157" s="8">
-        <v>18</v>
+      <c r="G157" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A158" s="8" t="s">
-        <v>75</v>
+      <c r="A158" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B158" s="8">
-        <v>22</v>
-      </c>
-      <c r="C158" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E158" s="8" t="s">
+      <c r="E158" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F158" s="8" t="s">
+      <c r="F158" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G158" s="8">
-        <v>19</v>
+      <c r="G158" s="7">
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B159" s="8">
-        <v>23</v>
-      </c>
-      <c r="C159" s="8" t="s">
+      <c r="A159" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B159" s="7">
+        <v>25</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E159" s="8" t="s">
+      <c r="E159" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="F159" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G159" s="8">
-        <v>20</v>
+      <c r="G159" s="7">
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:2611" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B160" s="8">
-        <v>22</v>
-      </c>
-      <c r="C160" s="8" t="s">
+      <c r="A160" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B160" s="7">
+        <v>25</v>
+      </c>
+      <c r="C160" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E160" s="8" t="s">
+      <c r="E160" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F160" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G160" s="8">
-        <v>21</v>
+      <c r="G160" s="7">
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B161" s="8">
-        <v>25</v>
-      </c>
-      <c r="C161" s="8" t="s">
+      <c r="A161" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B161" s="7">
+        <v>26</v>
+      </c>
+      <c r="C161" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="F161" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G161" s="8">
-        <v>22</v>
+      <c r="G161" s="7">
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B162" s="8">
-        <v>22</v>
-      </c>
-      <c r="C162" s="8" t="s">
+      <c r="A162" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="7">
+        <v>27</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E162" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F162" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G162" s="8">
-        <v>23</v>
+      <c r="G162" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B163" s="8">
-        <v>20</v>
-      </c>
-      <c r="C163" s="8" t="s">
+      <c r="A163" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B163" s="7">
+        <v>27</v>
+      </c>
+      <c r="C163" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E163" s="8" t="s">
+      <c r="E163" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F163" s="8" t="s">
+      <c r="F163" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G163" s="8">
-        <v>24</v>
+      <c r="G163" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B164" s="8">
-        <v>23</v>
-      </c>
-      <c r="C164" s="8" t="s">
+      <c r="A164" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B164" s="7">
+        <v>27</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E164" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F164" s="8" t="s">
+      <c r="F164" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G164" s="8">
-        <v>25</v>
+      <c r="G164" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B165" s="8">
-        <v>25</v>
-      </c>
-      <c r="C165" s="8" t="s">
+      <c r="A165" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" s="7">
+        <v>27</v>
+      </c>
+      <c r="C165" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E165" s="8" t="s">
+      <c r="E165" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F165" s="8" t="s">
+      <c r="F165" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G165" s="8">
-        <v>26</v>
+      <c r="G165" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B166" s="8">
-        <v>23</v>
-      </c>
-      <c r="C166" s="8" t="s">
+      <c r="A166" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B166" s="7">
+        <v>27</v>
+      </c>
+      <c r="C166" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E166" s="8" t="s">
+      <c r="E166" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F166" s="8" t="s">
+      <c r="F166" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G166" s="8">
-        <v>27</v>
+      <c r="G166" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="8" t="s">
-        <v>114</v>
+      <c r="A167" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B167" s="8">
-        <v>21</v>
-      </c>
-      <c r="C167" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="D167" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E167" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="F167" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G167" s="8">
-        <v>30</v>
+      <c r="G167" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B168" s="10">
-        <v>21</v>
-      </c>
-      <c r="C168" s="8" t="s">
+      <c r="A168" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B168" s="7">
+        <v>29</v>
+      </c>
+      <c r="C168" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E168" s="8" t="s">
+      <c r="E168" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F168" s="8" t="s">
+      <c r="F168" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G168" s="8">
-        <v>31</v>
+      <c r="G168" s="7">
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B169" s="7"/>
+      <c r="B169" s="6"/>
     </row>
     <row r="170" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B170" s="7"/>
+      <c r="B170" s="6"/>
     </row>
     <row r="171" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B171" s="7"/>
+      <c r="B171" s="6"/>
     </row>
     <row r="172" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B172" s="7"/>
+      <c r="B172" s="6"/>
     </row>
     <row r="173" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B173" s="7"/>
+      <c r="B173" s="6"/>
     </row>
     <row r="174" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B174" s="7"/>
+      <c r="B174" s="6"/>
     </row>
     <row r="175" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B175" s="7"/>
+      <c r="B175" s="6"/>
     </row>
     <row r="176" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B176" s="7"/>
+      <c r="B176" s="6"/>
     </row>
     <row r="177" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B177" s="7"/>
+      <c r="B177" s="6"/>
     </row>
     <row r="178" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B178" s="7"/>
+      <c r="B178" s="6"/>
     </row>
     <row r="179" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B179" s="7"/>
+      <c r="B179" s="6"/>
     </row>
     <row r="180" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B180" s="7"/>
+      <c r="B180" s="6"/>
     </row>
     <row r="181" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B181" s="7"/>
+      <c r="B181" s="6"/>
     </row>
     <row r="182" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B182" s="7"/>
+      <c r="B182" s="6"/>
     </row>
     <row r="183" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B183" s="7"/>
+      <c r="B183" s="6"/>
     </row>
     <row r="184" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B184" s="7"/>
+      <c r="B184" s="6"/>
     </row>
     <row r="185" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B185" s="7"/>
+      <c r="B185" s="6"/>
     </row>
     <row r="186" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B186" s="7"/>
+      <c r="B186" s="6"/>
     </row>
     <row r="187" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B187" s="7"/>
+      <c r="B187" s="6"/>
     </row>
     <row r="188" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B188" s="7"/>
+      <c r="B188" s="6"/>
     </row>
     <row r="189" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B189" s="7"/>
+      <c r="B189" s="6"/>
     </row>
     <row r="190" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B190" s="7"/>
+      <c r="B190" s="6"/>
     </row>
     <row r="191" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B191" s="7"/>
+      <c r="B191" s="6"/>
     </row>
     <row r="192" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B192" s="7"/>
+      <c r="B192" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{0052D020-0676-764E-B3EA-F1FE036E8E81}">
+  <autoFilter ref="A1:G168" xr:uid="{0052D020-0676-764E-B3EA-F1FE036E8E81}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G168">
       <sortCondition ref="D1:D168"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>